--- a/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA23AD5-0A28-4D58-B5E5-5FDE16AFE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1536176-D41B-4D57-96C6-B9636DC6D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34CF6F7D-0990-407A-AEE9-1D8FA46BEE57}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD2CD00B-9F51-4AA3-9B2F-9DA4661125E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="514">
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,1501 +76,1510 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>34,43%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>20,88%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>26,14%</t>
+    <t>29,21%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36897615-ADA8-4EE4-923B-D21A699230F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67D8147-6419-4B4B-AB33-F4D623210E52}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2450,7 +2459,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2474,13 @@
         <v>136602</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -2480,13 +2489,13 @@
         <v>74321</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>206</v>
@@ -2495,13 +2504,13 @@
         <v>210924</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2525,13 @@
         <v>460202</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>380</v>
@@ -2531,13 +2540,13 @@
         <v>377415</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>832</v>
@@ -2546,13 +2555,13 @@
         <v>837617</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2576,13 @@
         <v>755570</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>673</v>
@@ -2582,13 +2591,13 @@
         <v>690047</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1404</v>
@@ -2597,13 +2606,13 @@
         <v>1445618</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2627,13 @@
         <v>288617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>399</v>
@@ -2633,13 +2642,13 @@
         <v>415453</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -2648,13 +2657,13 @@
         <v>704070</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2719,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2722,13 +2731,13 @@
         <v>4652</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2737,13 +2746,13 @@
         <v>5079</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2854,13 +2863,13 @@
         <v>274838</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2884,13 @@
         <v>232210</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -2890,13 +2899,13 @@
         <v>186220</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -2905,13 +2914,13 @@
         <v>418431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2935,13 @@
         <v>133025</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -2941,13 +2950,13 @@
         <v>151527</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -2956,13 +2965,13 @@
         <v>284552</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3039,13 @@
         <v>72877</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3045,13 +3054,13 @@
         <v>41576</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3060,13 +3069,13 @@
         <v>114452</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3090,13 @@
         <v>227737</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -3096,13 +3105,13 @@
         <v>146558</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -3111,13 +3120,13 @@
         <v>374295</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,16 +3138,16 @@
         <v>885</v>
       </c>
       <c r="D24" s="7">
-        <v>903964</v>
+        <v>903965</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>780</v>
@@ -3147,13 +3156,13 @@
         <v>788433</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1665</v>
@@ -3162,13 +3171,13 @@
         <v>1692398</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,16 +3189,16 @@
         <v>1359</v>
       </c>
       <c r="D25" s="7">
-        <v>1384429</v>
+        <v>1384430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>1424</v>
@@ -3198,13 +3207,13 @@
         <v>1460208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>2783</v>
@@ -3213,13 +3222,13 @@
         <v>2844638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3243,13 @@
         <v>686702</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>908</v>
@@ -3249,13 +3258,13 @@
         <v>941363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>1579</v>
@@ -3264,13 +3273,13 @@
         <v>1628064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3291,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275709</v>
+        <v>3275710</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3326,7 +3335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5074D0DB-50F3-43B1-8747-3011EEAD6EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9C181-8248-404A-9BD7-3E2477298E40}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,7 +3371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3469,13 +3478,13 @@
         <v>18805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3502,10 +3511,10 @@
         <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3529,13 @@
         <v>39840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -3550,13 +3559,13 @@
         <v>85428</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,7 +3858,7 @@
         <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -3879,13 +3888,13 @@
         <v>473160</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -3894,13 +3903,13 @@
         <v>325827</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>755</v>
@@ -3909,13 +3918,13 @@
         <v>798987</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3939,13 @@
         <v>730174</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>582</v>
@@ -3945,13 +3954,13 @@
         <v>621865</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>1258</v>
@@ -3960,13 +3969,13 @@
         <v>1352039</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3990,13 @@
         <v>628644</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>675</v>
@@ -3996,10 +4005,10 @@
         <v>731053</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>277</v>
@@ -4073,7 +4082,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4085,7 +4094,7 @@
         <v>4050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>281</v>
@@ -4115,13 +4124,13 @@
         <v>6129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4145,13 @@
         <v>11700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4151,13 +4160,13 @@
         <v>4941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4166,13 +4175,13 @@
         <v>16641</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4196,13 @@
         <v>102301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4202,13 +4211,13 @@
         <v>61459</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>152</v>
@@ -4217,13 +4226,13 @@
         <v>163759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4247,13 @@
         <v>178872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -4253,13 +4262,13 @@
         <v>144149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -4268,13 +4277,13 @@
         <v>323021</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4405,7 @@
         <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>321</v>
@@ -4408,13 +4417,13 @@
         <v>36451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -4426,7 +4435,7 @@
         <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>324</v>
@@ -4447,7 +4456,7 @@
         <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>326</v>
@@ -4480,7 +4489,7 @@
         <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4504,13 @@
         <v>779066</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7">
         <v>544</v>
@@ -4510,25 +4519,25 @@
         <v>584087</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1283</v>
       </c>
       <c r="N24" s="7">
-        <v>1363153</v>
+        <v>1363154</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>339</v>
@@ -4564,25 +4573,25 @@
         <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>2207</v>
       </c>
       <c r="N25" s="7">
-        <v>2385696</v>
+        <v>2385697</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4606,13 @@
         <v>1226560</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>1512</v>
@@ -4612,13 +4621,13 @@
         <v>1636825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>2662</v>
@@ -4627,13 +4636,13 @@
         <v>2863385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,7 +4684,7 @@
         <v>6482</v>
       </c>
       <c r="N27" s="7">
-        <v>6956972</v>
+        <v>6956973</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4689,7 +4698,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C654512-BAC4-4FC4-A6FA-E666ED3262E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18CF31-A046-4A95-89F5-867E774C5D9F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4725,7 +4734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,10 +4844,10 @@
         <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4847,13 +4856,13 @@
         <v>10993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>362</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4862,13 +4871,13 @@
         <v>20948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4892,13 @@
         <v>23892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4898,13 +4907,13 @@
         <v>23371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4913,10 +4922,10 @@
         <v>47263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>369</v>
@@ -4934,13 +4943,13 @@
         <v>143402</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>152</v>
@@ -4949,13 +4958,13 @@
         <v>169927</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -4964,13 +4973,13 @@
         <v>313329</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4994,13 @@
         <v>357371</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>369</v>
@@ -5000,13 +5009,13 @@
         <v>411680</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>731</v>
@@ -5015,13 +5024,13 @@
         <v>769051</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5045,13 @@
         <v>217768</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -5051,7 +5060,7 @@
         <v>374219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>392</v>
@@ -5066,13 +5075,13 @@
         <v>591987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5149,13 @@
         <v>28446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5155,13 +5164,13 @@
         <v>25822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -5176,7 +5185,7 @@
         <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>403</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5200,13 @@
         <v>96793</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5206,13 +5215,13 @@
         <v>57104</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -5293,13 +5302,13 @@
         <v>917947</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>814</v>
@@ -5308,13 +5317,13 @@
         <v>846355</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>1684</v>
@@ -5436,7 +5445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5463,7 +5472,7 @@
         <v>6582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>440</v>
@@ -5478,13 +5487,13 @@
         <v>6582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5508,13 @@
         <v>19295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5514,13 +5523,13 @@
         <v>10628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>445</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5529,13 +5538,13 @@
         <v>29923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5559,13 @@
         <v>98880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>451</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -5565,13 +5574,13 @@
         <v>81852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -5580,13 +5589,13 @@
         <v>180732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5610,13 @@
         <v>223373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -5616,13 +5625,13 @@
         <v>219540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>420</v>
@@ -5631,13 +5640,13 @@
         <v>442914</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5661,13 @@
         <v>203327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5667,13 +5676,13 @@
         <v>228574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>398</v>
@@ -5682,13 +5691,13 @@
         <v>431900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5765,13 @@
         <v>38401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>473</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5771,13 +5780,13 @@
         <v>43398</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -5786,13 +5795,13 @@
         <v>81799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5816,13 @@
         <v>139981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5822,13 +5831,13 @@
         <v>91104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>321</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -5837,13 +5846,13 @@
         <v>231085</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5867,13 @@
         <v>751975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>637</v>
@@ -5873,13 +5882,13 @@
         <v>661508</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>1346</v>
@@ -5888,13 +5897,13 @@
         <v>1413483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5918,13 @@
         <v>1498691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>1395</v>
@@ -5924,13 +5933,13 @@
         <v>1477576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M25" s="7">
         <v>2835</v>
@@ -5939,13 +5948,13 @@
         <v>2976267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5969,13 @@
         <v>931391</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>507</v>
       </c>
       <c r="H26" s="7">
         <v>1151</v>
@@ -5975,13 +5984,13 @@
         <v>1241757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>2034</v>
@@ -5990,13 +5999,13 @@
         <v>2173148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6061,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1536176-D41B-4D57-96C6-B9636DC6D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85086975-9552-4A8A-8EA8-37AC063CEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD2CD00B-9F51-4AA3-9B2F-9DA4661125E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4D1773B-A8B6-472E-8F17-B8E575CD7CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -94,1438 +94,1426 @@
     <t>0,98%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>20,22%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>19,61%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>21,56%</t>
@@ -1534,52 +1522,52 @@
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>44,57%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>29,21%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67D8147-6419-4B4B-AB33-F4D623210E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F5778D-DDE0-434E-9E96-583C591F85F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2459,7 +2447,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2462,13 @@
         <v>136602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -2489,13 +2477,13 @@
         <v>74321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>206</v>
@@ -2504,13 +2492,13 @@
         <v>210924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2513,13 @@
         <v>460202</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>380</v>
@@ -2540,13 +2528,13 @@
         <v>377415</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>832</v>
@@ -2555,13 +2543,13 @@
         <v>837617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,16 +2561,16 @@
         <v>731</v>
       </c>
       <c r="D13" s="7">
-        <v>755570</v>
+        <v>755571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>673</v>
@@ -2591,13 +2579,13 @@
         <v>690047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1404</v>
@@ -2606,13 +2594,13 @@
         <v>1445618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2615,13 @@
         <v>288617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>399</v>
@@ -2642,13 +2630,13 @@
         <v>415453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -2657,13 +2645,13 @@
         <v>704070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2663,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2719,7 +2707,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2731,13 +2719,13 @@
         <v>4652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2746,13 +2734,13 @@
         <v>5079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2761,13 +2749,13 @@
         <v>9731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2770,13 @@
         <v>25620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2797,13 +2785,13 @@
         <v>14649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2812,13 +2800,13 @@
         <v>40269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2821,13 @@
         <v>155900</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -2848,13 +2836,13 @@
         <v>118937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>263</v>
@@ -2863,13 +2851,13 @@
         <v>274838</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2872,13 @@
         <v>232210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -2899,13 +2887,13 @@
         <v>186220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -2914,13 +2902,13 @@
         <v>418431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2923,13 @@
         <v>133025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -2950,13 +2938,13 @@
         <v>151527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -2965,13 +2953,13 @@
         <v>284552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3027,13 @@
         <v>72877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3054,13 +3042,13 @@
         <v>41576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3069,13 +3057,13 @@
         <v>114452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3078,13 @@
         <v>227737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -3105,13 +3093,13 @@
         <v>146558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -3120,13 +3108,13 @@
         <v>374295</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,16 +3126,16 @@
         <v>885</v>
       </c>
       <c r="D24" s="7">
-        <v>903965</v>
+        <v>903964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>780</v>
@@ -3156,13 +3144,13 @@
         <v>788433</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>1665</v>
@@ -3171,13 +3159,13 @@
         <v>1692398</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,16 +3177,16 @@
         <v>1359</v>
       </c>
       <c r="D25" s="7">
-        <v>1384430</v>
+        <v>1384429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>1424</v>
@@ -3207,13 +3195,13 @@
         <v>1460208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>2783</v>
@@ -3222,13 +3210,13 @@
         <v>2844638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3231,13 @@
         <v>686702</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>908</v>
@@ -3258,13 +3246,13 @@
         <v>941363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1579</v>
@@ -3273,13 +3261,13 @@
         <v>1628064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3279,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3335,7 +3323,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9C181-8248-404A-9BD7-3E2477298E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4044-A9BE-4C4A-B2A3-9CED0BA0CF18}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3478,13 +3466,13 @@
         <v>18805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3493,13 +3481,13 @@
         <v>16640</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3508,13 +3496,13 @@
         <v>35445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3517,13 @@
         <v>39840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -3544,13 +3532,13 @@
         <v>45588</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -3559,13 +3547,13 @@
         <v>85428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3568,13 @@
         <v>203606</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>184</v>
@@ -3595,13 +3583,13 @@
         <v>196801</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -3610,13 +3598,13 @@
         <v>400407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3619,13 @@
         <v>293572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>386</v>
@@ -3646,13 +3634,13 @@
         <v>417064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>656</v>
@@ -3661,13 +3649,13 @@
         <v>710636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3670,13 @@
         <v>414688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>621</v>
@@ -3697,13 +3685,13 @@
         <v>661702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1006</v>
@@ -3712,13 +3700,13 @@
         <v>1076390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3774,13 @@
         <v>32752</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3858,7 +3846,7 @@
         <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -3867,13 +3855,13 @@
         <v>150612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3876,13 @@
         <v>473160</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -3903,13 +3891,13 @@
         <v>325827</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>755</v>
@@ -3918,13 +3906,13 @@
         <v>798987</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3927,13 @@
         <v>730174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>582</v>
@@ -3954,13 +3942,13 @@
         <v>621865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>1258</v>
@@ -3969,13 +3957,13 @@
         <v>1352039</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>628644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>675</v>
@@ -4005,13 +3993,13 @@
         <v>731053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>1275</v>
@@ -4020,13 +4008,13 @@
         <v>1359697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4056,7 @@
         <v>3483</v>
       </c>
       <c r="N15" s="7">
-        <v>3711818</v>
+        <v>3711819</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4082,7 +4070,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4094,13 +4082,13 @@
         <v>4050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4109,13 +4097,13 @@
         <v>2079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4124,13 +4112,13 @@
         <v>6129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,10 +4133,10 @@
         <v>11700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>290</v>
@@ -4163,7 +4151,7 @@
         <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>292</v>
@@ -4175,13 +4163,13 @@
         <v>16641</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4184,13 @@
         <v>102301</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4283,7 +4271,7 @@
         <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4286,13 @@
         <v>183229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -4313,13 +4301,13 @@
         <v>244069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>381</v>
@@ -4328,13 +4316,13 @@
         <v>427298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4390,13 @@
         <v>55607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -4417,13 +4405,13 @@
         <v>36451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -4432,13 +4420,13 @@
         <v>92058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4441,13 @@
         <v>148723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>97</v>
@@ -4468,13 +4456,13 @@
         <v>103957</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -4483,13 +4471,13 @@
         <v>252680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4492,13 @@
         <v>779066</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>544</v>
@@ -4519,28 +4507,28 @@
         <v>584087</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>1283</v>
       </c>
       <c r="N24" s="7">
-        <v>1363154</v>
+        <v>1363153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4543,13 @@
         <v>1202618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>1099</v>
@@ -4570,28 +4558,28 @@
         <v>1183078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>2207</v>
       </c>
       <c r="N25" s="7">
-        <v>2385697</v>
+        <v>2385696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4594,13 @@
         <v>1226560</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>1512</v>
@@ -4621,13 +4609,13 @@
         <v>1636825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>2662</v>
@@ -4636,13 +4624,13 @@
         <v>2863385</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4672,7 @@
         <v>6482</v>
       </c>
       <c r="N27" s="7">
-        <v>6956973</v>
+        <v>6956972</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4698,7 +4686,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +4705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18CF31-A046-4A95-89F5-867E774C5D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7FD3D-FB04-497F-8002-55BAC3716548}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4734,7 +4722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4841,13 +4829,13 @@
         <v>9955</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4856,13 +4844,13 @@
         <v>10993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4871,13 +4859,13 @@
         <v>20948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4880,13 @@
         <v>23892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4907,13 +4895,13 @@
         <v>23371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4922,13 +4910,13 @@
         <v>47263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4931,13 @@
         <v>143402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7">
         <v>152</v>
@@ -4958,13 +4946,13 @@
         <v>169927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -4973,13 +4961,13 @@
         <v>313329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4982,13 @@
         <v>357371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>369</v>
@@ -5009,28 +4997,28 @@
         <v>411680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>731</v>
       </c>
       <c r="N7" s="7">
-        <v>769051</v>
+        <v>769052</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5033,13 @@
         <v>217768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -5060,13 +5048,13 @@
         <v>374219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>557</v>
@@ -5075,13 +5063,13 @@
         <v>591987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5111,7 @@
         <v>1648</v>
       </c>
       <c r="N9" s="7">
-        <v>1742579</v>
+        <v>1742580</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5149,13 +5137,13 @@
         <v>28446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5164,13 +5152,13 @@
         <v>25822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -5179,13 +5167,13 @@
         <v>54268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5188,13 @@
         <v>96793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5215,13 +5203,13 @@
         <v>57104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -5233,10 +5221,10 @@
         <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5239,13 @@
         <v>509693</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>403</v>
@@ -5266,13 +5254,13 @@
         <v>409729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>878</v>
@@ -5281,13 +5269,13 @@
         <v>919422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5290,13 @@
         <v>917947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>814</v>
@@ -5317,13 +5305,13 @@
         <v>846355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>1684</v>
@@ -5332,13 +5320,13 @@
         <v>1764302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5341,13 @@
         <v>510297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -5368,13 +5356,13 @@
         <v>638964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>1079</v>
@@ -5383,13 +5371,13 @@
         <v>1149261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5433,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5457,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5472,13 +5460,13 @@
         <v>6582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5487,13 +5475,13 @@
         <v>6582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5496,13 @@
         <v>19295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5523,13 +5511,13 @@
         <v>10628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>448</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5541,10 +5529,10 @@
         <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5547,13 @@
         <v>98880</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -5643,10 +5631,10 @@
         <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5649,13 @@
         <v>203327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5676,13 +5664,13 @@
         <v>228574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>398</v>
@@ -5691,13 +5679,13 @@
         <v>431900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5753,13 @@
         <v>38401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5780,13 +5768,13 @@
         <v>43398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -5795,13 +5783,13 @@
         <v>81799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5804,13 @@
         <v>139981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5837,7 +5825,7 @@
         <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>368</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -5846,13 +5834,13 @@
         <v>231085</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5855,13 @@
         <v>751975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>637</v>
@@ -5882,13 +5870,13 @@
         <v>661508</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>221</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>1346</v>
@@ -5897,13 +5885,13 @@
         <v>1413483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5906,13 @@
         <v>1498691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>1395</v>
@@ -5933,13 +5921,13 @@
         <v>1477576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7">
         <v>2835</v>
@@ -5948,13 +5936,13 @@
         <v>2976267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5957,13 @@
         <v>931391</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>1151</v>
@@ -5984,13 +5972,13 @@
         <v>1241757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>2034</v>
@@ -5999,13 +5987,13 @@
         <v>2173148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,7 +6049,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85086975-9552-4A8A-8EA8-37AC063CEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5574D460-FB72-402A-858D-104AF5F149FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4D1773B-A8B6-472E-8F17-B8E575CD7CD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{900C07E0-40B2-47D3-A75E-0D878EF74CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="511">
   <si>
     <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,1456 +76,1459 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
   </si>
   <si>
     <t>42,03%</t>
@@ -1534,13 +1537,16 @@
     <t>40,29%</t>
   </si>
   <si>
-    <t>43,73%</t>
+    <t>43,71%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>44,57%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>27,72%</t>
@@ -1549,25 +1555,22 @@
     <t>26,14%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F5778D-DDE0-434E-9E96-583C591F85F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C3491-0D88-41ED-8FED-933DFBD684BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2561,7 +2564,7 @@
         <v>731</v>
       </c>
       <c r="D13" s="7">
-        <v>755571</v>
+        <v>755570</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2663,7 +2666,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2740,7 +2743,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2749,13 +2752,13 @@
         <v>9731</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2773,13 @@
         <v>25620</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2785,13 +2788,13 @@
         <v>14649</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -2800,13 +2803,13 @@
         <v>40269</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2824,13 @@
         <v>155900</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -2836,13 +2839,13 @@
         <v>118937</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>263</v>
@@ -2851,13 +2854,13 @@
         <v>274838</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2875,13 @@
         <v>232210</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -2887,13 +2890,13 @@
         <v>186220</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -2902,13 +2905,13 @@
         <v>418431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2926,13 @@
         <v>133025</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -2938,13 +2941,13 @@
         <v>151527</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -2953,13 +2956,13 @@
         <v>284552</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3030,13 @@
         <v>72877</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3042,13 +3045,13 @@
         <v>41576</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3057,13 +3060,13 @@
         <v>114452</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3081,13 @@
         <v>227737</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>143</v>
@@ -3093,13 +3096,13 @@
         <v>146558</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>367</v>
@@ -3108,13 +3111,13 @@
         <v>374295</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3132,13 @@
         <v>903964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>780</v>
@@ -3144,13 +3147,13 @@
         <v>788433</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1665</v>
@@ -3159,13 +3162,13 @@
         <v>1692398</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3183,13 @@
         <v>1384429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>1424</v>
@@ -3195,13 +3198,13 @@
         <v>1460208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>2783</v>
@@ -3210,13 +3213,13 @@
         <v>2844638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3234,13 @@
         <v>686702</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>908</v>
@@ -3246,13 +3249,13 @@
         <v>941363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1579</v>
@@ -3261,13 +3264,13 @@
         <v>1628064</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3326,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82B4044-A9BE-4C4A-B2A3-9CED0BA0CF18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C564B4-37BC-4C5D-B543-12E373F95DC3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3466,13 +3469,13 @@
         <v>18805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3481,13 +3484,13 @@
         <v>16640</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3496,13 +3499,13 @@
         <v>35445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3520,13 @@
         <v>39840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -3532,13 +3535,13 @@
         <v>45588</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -3547,13 +3550,13 @@
         <v>85428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3571,13 @@
         <v>203606</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>184</v>
@@ -3583,13 +3586,13 @@
         <v>196801</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -3598,13 +3601,13 @@
         <v>400407</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3622,13 @@
         <v>293572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>386</v>
@@ -3634,13 +3637,13 @@
         <v>417064</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>656</v>
@@ -3649,13 +3652,13 @@
         <v>710636</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3673,13 @@
         <v>414688</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>621</v>
@@ -3685,13 +3688,13 @@
         <v>661702</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1006</v>
@@ -3700,13 +3703,13 @@
         <v>1076390</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3777,13 @@
         <v>32752</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3846,7 +3849,7 @@
         <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>144</v>
@@ -3855,13 +3858,13 @@
         <v>150612</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3879,13 @@
         <v>473160</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -3996,10 +3999,10 @@
         <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>1275</v>
@@ -4008,13 +4011,13 @@
         <v>1359697</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4059,7 @@
         <v>3483</v>
       </c>
       <c r="N15" s="7">
-        <v>3711819</v>
+        <v>3711818</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4085,10 +4088,10 @@
         <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4097,13 +4100,13 @@
         <v>2079</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4112,13 +4115,13 @@
         <v>6129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4136,13 @@
         <v>11700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4148,13 +4151,13 @@
         <v>4941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4163,13 +4166,13 @@
         <v>16641</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4187,13 @@
         <v>102301</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -4199,13 +4202,13 @@
         <v>61459</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>152</v>
@@ -4214,13 +4217,13 @@
         <v>163759</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4238,13 @@
         <v>178872</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -4250,13 +4253,13 @@
         <v>144149</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -4265,13 +4268,13 @@
         <v>323021</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4289,13 @@
         <v>183229</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -4301,13 +4304,13 @@
         <v>244069</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>381</v>
@@ -4316,13 +4319,13 @@
         <v>427298</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4393,13 @@
         <v>55607</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -4405,13 +4408,13 @@
         <v>36451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -4420,13 +4423,13 @@
         <v>92058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4444,13 @@
         <v>148723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>97</v>
@@ -4456,13 +4459,13 @@
         <v>103957</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>240</v>
@@ -4471,13 +4474,13 @@
         <v>252680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4495,13 @@
         <v>779066</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>544</v>
@@ -4507,13 +4510,13 @@
         <v>584087</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>99</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1283</v>
@@ -4522,13 +4525,13 @@
         <v>1363153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>258</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4546,13 @@
         <v>1202618</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>1099</v>
@@ -4558,13 +4561,13 @@
         <v>1183078</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>2207</v>
@@ -4573,13 +4576,13 @@
         <v>2385696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4597,13 @@
         <v>1226560</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>1512</v>
@@ -4609,13 +4612,13 @@
         <v>1636825</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>2662</v>
@@ -4624,13 +4627,13 @@
         <v>2863385</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4689,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7FD3D-FB04-497F-8002-55BAC3716548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53274718-96BB-4A7D-BA34-36F695BF46F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4829,13 +4832,13 @@
         <v>9955</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4844,13 +4847,13 @@
         <v>10993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4859,13 +4862,13 @@
         <v>20948</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4883,13 @@
         <v>23892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4895,13 +4898,13 @@
         <v>23371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4910,13 +4913,13 @@
         <v>47263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4934,13 @@
         <v>143402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>152</v>
@@ -4946,13 +4949,13 @@
         <v>169927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>296</v>
@@ -4961,13 +4964,13 @@
         <v>313329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4985,13 @@
         <v>357371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>369</v>
@@ -4997,28 +5000,28 @@
         <v>411680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>731</v>
       </c>
       <c r="N7" s="7">
-        <v>769052</v>
+        <v>769051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5036,13 @@
         <v>217768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>336</v>
@@ -5048,13 +5051,13 @@
         <v>374219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>557</v>
@@ -5063,13 +5066,13 @@
         <v>591987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5114,7 @@
         <v>1648</v>
       </c>
       <c r="N9" s="7">
-        <v>1742580</v>
+        <v>1742579</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5137,13 +5140,13 @@
         <v>28446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5152,13 +5155,13 @@
         <v>25822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -5167,13 +5170,13 @@
         <v>54268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5191,13 @@
         <v>96793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5203,13 +5206,13 @@
         <v>57104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -5221,10 +5224,10 @@
         <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5242,13 @@
         <v>509693</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>403</v>
@@ -5254,13 +5257,13 @@
         <v>409729</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>878</v>
@@ -5269,13 +5272,13 @@
         <v>919422</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5293,13 @@
         <v>917947</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>814</v>
@@ -5305,13 +5308,13 @@
         <v>846355</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>1684</v>
@@ -5320,13 +5323,13 @@
         <v>1764302</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5344,13 @@
         <v>510297</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>601</v>
@@ -5356,13 +5359,13 @@
         <v>638964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>1079</v>
@@ -5371,13 +5374,13 @@
         <v>1149261</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5460,13 +5463,13 @@
         <v>6582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5475,13 +5478,13 @@
         <v>6582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5499,13 @@
         <v>19295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5511,13 +5514,13 @@
         <v>10628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>444</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5526,13 +5529,13 @@
         <v>29923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5550,13 @@
         <v>98880</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -5562,13 +5565,13 @@
         <v>81852</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -5577,13 +5580,13 @@
         <v>180732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5601,13 @@
         <v>223373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>212</v>
@@ -5613,13 +5616,13 @@
         <v>219540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>420</v>
@@ -5628,13 +5631,13 @@
         <v>442914</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5652,13 @@
         <v>203327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5664,13 +5667,13 @@
         <v>228574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>398</v>
@@ -5679,13 +5682,13 @@
         <v>431900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5756,13 @@
         <v>38401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -5768,13 +5771,13 @@
         <v>43398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -5783,13 +5786,13 @@
         <v>81799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5807,13 @@
         <v>139981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -5819,13 +5822,13 @@
         <v>91104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="M23" s="7">
         <v>216</v>
@@ -5834,13 +5837,13 @@
         <v>231085</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5858,13 @@
         <v>751975</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>637</v>
@@ -5873,10 +5876,10 @@
         <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M24" s="7">
         <v>1346</v>
@@ -5885,13 +5888,13 @@
         <v>1413483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5909,13 @@
         <v>1498691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>1395</v>
@@ -5921,13 +5924,13 @@
         <v>1477576</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M25" s="7">
         <v>2835</v>
@@ -5936,13 +5939,13 @@
         <v>2976267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5960,13 @@
         <v>931391</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>1151</v>
@@ -5972,13 +5975,13 @@
         <v>1241757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
         <v>2034</v>
@@ -5987,13 +5990,13 @@
         <v>2173148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,7 +6052,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5574D460-FB72-402A-858D-104AF5F149FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DC8AC3-81E4-44BC-AE7E-F99FAC67ED88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{900C07E0-40B2-47D3-A75E-0D878EF74CC1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AEE65026-A0A7-45A6-B750-8FE23BB497CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1982,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C3491-0D88-41ED-8FED-933DFBD684BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE82A3ED-68F9-4203-9424-7363987F0A3E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2286,7 +2286,7 @@
         <v>979</v>
       </c>
       <c r="N7" s="7">
-        <v>980590</v>
+        <v>980589</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2388,7 +2388,7 @@
         <v>2328</v>
       </c>
       <c r="N9" s="7">
-        <v>2346002</v>
+        <v>2346001</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2564,7 +2564,7 @@
         <v>731</v>
       </c>
       <c r="D13" s="7">
-        <v>755570</v>
+        <v>755571</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2666,7 +2666,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3246,7 +3246,7 @@
         <v>908</v>
       </c>
       <c r="I26" s="7">
-        <v>941363</v>
+        <v>941362</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>188</v>
@@ -3297,7 +3297,7 @@
         <v>3296</v>
       </c>
       <c r="I27" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3345,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C564B4-37BC-4C5D-B543-12E373F95DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F11D97F-253E-480A-BEED-F2F8D8E97584}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3583,7 @@
         <v>184</v>
       </c>
       <c r="I6" s="7">
-        <v>196801</v>
+        <v>196802</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>215</v>
@@ -3685,7 +3685,7 @@
         <v>621</v>
       </c>
       <c r="I8" s="7">
-        <v>661702</v>
+        <v>661703</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>233</v>
@@ -3736,7 +3736,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -4059,7 +4059,7 @@
         <v>3483</v>
       </c>
       <c r="N15" s="7">
-        <v>3711818</v>
+        <v>3711819</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4522,7 +4522,7 @@
         <v>1283</v>
       </c>
       <c r="N24" s="7">
-        <v>1363153</v>
+        <v>1363154</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>338</v>
@@ -4573,7 +4573,7 @@
         <v>2207</v>
       </c>
       <c r="N25" s="7">
-        <v>2385696</v>
+        <v>2385697</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>346</v>
@@ -4675,7 +4675,7 @@
         <v>6482</v>
       </c>
       <c r="N27" s="7">
-        <v>6956972</v>
+        <v>6956973</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4708,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53274718-96BB-4A7D-BA34-36F695BF46F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F9D9DD-F24F-43CF-9519-40897E1341C0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6023,7 +6023,7 @@
         <v>3310</v>
       </c>
       <c r="I27" s="7">
-        <v>3515342</v>
+        <v>3515343</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
